--- a/100_Faturamento/001_Quantidade.xlsx
+++ b/100_Faturamento/001_Quantidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/100_Faturamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{3FC588C3-0CFD-46EE-A792-610AB912D8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B3F89E-FB39-4B37-8C64-B3A57FD2BCE8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{3FC588C3-0CFD-46EE-A792-610AB912D8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFEF9642-CDC3-4C7F-8054-C95702CD431A}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="3840" windowWidth="24585" windowHeight="12420" xr2:uid="{8428710B-2382-4B4A-9944-4AB07D1BA3CF}"/>
+    <workbookView xWindow="8130" yWindow="3585" windowWidth="23055" windowHeight="15030" xr2:uid="{8428710B-2382-4B4A-9944-4AB07D1BA3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Qtd" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,40 +551,40 @@
         <v>2025</v>
       </c>
       <c r="D2">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="E2">
-        <v>54000</v>
+        <v>108000</v>
       </c>
       <c r="F2">
-        <v>81000</v>
+        <v>162000</v>
       </c>
       <c r="G2">
-        <v>57000</v>
+        <v>114000</v>
       </c>
       <c r="H2">
-        <v>69000</v>
+        <v>138000</v>
       </c>
       <c r="I2">
-        <v>66000</v>
+        <v>132000</v>
       </c>
       <c r="J2">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="K2">
-        <v>105000</v>
+        <v>210000</v>
       </c>
       <c r="L2">
-        <v>99000</v>
+        <v>198000</v>
       </c>
       <c r="M2">
-        <v>93000</v>
+        <v>186000</v>
       </c>
       <c r="N2">
-        <v>114000</v>
+        <v>228000</v>
       </c>
       <c r="O2">
-        <v>150000</v>
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
